--- a/Predicciones Amigos (Respuestas).xlsx
+++ b/Predicciones Amigos (Respuestas).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="140">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -410,6 +410,27 @@
   </si>
   <si>
     <t>The Witcher IV</t>
+  </si>
+  <si>
+    <t>Hector (Homp)</t>
+  </si>
+  <si>
+    <t>Siyei</t>
+  </si>
+  <si>
+    <t>Shinobi: Art of Vengeance</t>
+  </si>
+  <si>
+    <t>ARC Raiders</t>
+  </si>
+  <si>
+    <t>Porky</t>
+  </si>
+  <si>
+    <t>Erika Ishii (Ghost of Yotei)</t>
+  </si>
+  <si>
+    <t>Tivo</t>
   </si>
 </sst>
 </file>
@@ -446,12 +467,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -534,7 +561,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AE15" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AE19" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="31">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Tu Nombre" id="2"/>
@@ -2235,6 +2262,386 @@
         <v>90</v>
       </c>
     </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="4">
+        <v>46001.416341828706</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="4">
+        <v>46002.42891386574</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="4">
+        <v>46002.4311102662</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="4">
+        <v>46002.62871505787</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
